--- a/AI PRODUCTIVITY.xlsx
+++ b/AI PRODUCTIVITY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81406F1D-9ECE-4FDC-AFA9-380590E06B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CD7CD-0F40-4531-AEF9-D61E74564288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="555" windowWidth="21945" windowHeight="13575" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
+    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>"Goldman Sachs estimates that AI could boost U.S. GDP growth by 0.4 percentage points annually by 2034, primarily through automation and productivity gains"</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>How does the GDP growth vs Stock Market Cap NPV compare to other times such as the Tech Bubble?</t>
-  </si>
-  <si>
-    <t>DOT COM bubble debt to gdp of 50%</t>
   </si>
 </sst>
 </file>
@@ -326,143 +323,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>113110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>136110</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1B03B5-DB09-9DCF-AE4C-BB44ECDFC8E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="166687" y="5715001"/>
-          <a:ext cx="4238625" cy="1487468"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>854912</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>107899</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>89297</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF532FE-4B68-09DB-ABA7-E5FB612F5172}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4641100" y="5959080"/>
-          <a:ext cx="3211815" cy="2643186"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>122708</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>796156</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>136922</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B18C3F-FF46-EE7F-814A-C916C2AE684A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="122708" y="7274719"/>
-          <a:ext cx="4459636" cy="2018109"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CDAD3F-0683-4EAF-BE1C-6EBCAC4B8962}">
-  <dimension ref="A1:DW56"/>
+  <dimension ref="A1:DW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1983,17 +1843,11 @@
     <row r="39" spans="1:1" ht="15">
       <c r="A39" s="11"/>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C24" r:id="rId1" display="https://cdn.pficdn.com/cms/pgim-fixed-income/sites/default/files/2021-04/The Evolution of U.S. Corporate Profits_2.pdf" xr:uid="{4065D268-8994-4E40-BA50-A60C64E66065}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AI PRODUCTIVITY.xlsx
+++ b/AI PRODUCTIVITY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CD7CD-0F40-4531-AEF9-D61E74564288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00148578-8671-4FF7-A0AC-61EEE15CC698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14D5C228-281F-4AD9-8C16-56F30D2AC9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CDAD3F-0683-4EAF-BE1C-6EBCAC4B8962}">
   <dimension ref="A1:DW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="E6" s="1">
         <v>63500</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D7" s="2">
         <f>D6/D5</f>
-        <v>2.081967213114754</v>
+        <v>2.098360655737705</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:W7" si="3">E6/E5</f>
@@ -1114,49 +1114,49 @@
         <v>0.12</v>
       </c>
       <c r="I9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="J9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="K9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="L9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="M9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="N9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="O9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="P9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="R9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="S9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="T9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="U9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="V9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="W9" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="10" spans="1:127">
@@ -1185,479 +1185,479 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>4263.5799558169911</v>
+        <v>3197.6849668627433</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>4395.7509344473165</v>
+        <v>3296.8132008354878</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>4532.0192134151839</v>
+        <v>3399.0144100613875</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>4672.5118090310534</v>
+        <v>3504.3838567732901</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="4"/>
-        <v>4817.3596751110163</v>
+        <v>3613.0197563332622</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="4"/>
-        <v>4966.6978250394568</v>
+        <v>3725.0233687795926</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="4"/>
-        <v>5120.6654576156798</v>
+        <v>3840.4990932117598</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="4"/>
-        <v>5279.406086801765</v>
+        <v>3959.554565101324</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="4"/>
-        <v>5443.0676754926189</v>
+        <v>4082.3007566194647</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="4"/>
-        <v>5611.8027734328907</v>
+        <v>4208.8520800746674</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="4"/>
-        <v>5785.7686594093093</v>
+        <v>4339.3264945569817</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="4"/>
-        <v>5965.1274878509976</v>
+        <v>4473.8456158882482</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="4"/>
-        <v>6150.0464399743778</v>
+        <v>4612.5348299807829</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="4"/>
-        <v>6340.6978796135827</v>
+        <v>4755.5234097101866</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="4"/>
-        <v>6537.2595138816032</v>
+        <v>4902.9446354112024</v>
       </c>
       <c r="X10" s="1">
         <f>W10*1.031</f>
-        <v>6739.9145588119327</v>
+        <v>5054.9359191089488</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ref="Y10:CJ10" si="5">X10*1.031</f>
-        <v>6948.8519101351021</v>
+        <v>5211.6389326013259</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="5"/>
-        <v>7164.2663193492899</v>
+        <v>5373.199739511967</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="5"/>
-        <v>7386.3585752491172</v>
+        <v>5539.7689314368372</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="5"/>
-        <v>7615.3356910818393</v>
+        <v>5711.5017683113783</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="5"/>
-        <v>7851.4110975053754</v>
+        <v>5888.5583231290302</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="5"/>
-        <v>8094.8048415280418</v>
+        <v>6071.1036311460293</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" si="5"/>
-        <v>8345.7437916154104</v>
+        <v>6259.3078437115555</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="5"/>
-        <v>8604.4618491554866</v>
+        <v>6453.3463868666131</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="5"/>
-        <v>8871.2001664793061</v>
+        <v>6653.4001248594777</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="5"/>
-        <v>9146.2073716401646</v>
+        <v>6859.6555287301207</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="5"/>
-        <v>9429.739800161009</v>
+        <v>7072.3048501207541</v>
       </c>
       <c r="AJ10" s="1">
         <f t="shared" si="5"/>
-        <v>9722.0617339660002</v>
+        <v>7291.546300474497</v>
       </c>
       <c r="AK10" s="1">
         <f t="shared" si="5"/>
-        <v>10023.445647718945</v>
+        <v>7517.5842357892061</v>
       </c>
       <c r="AL10" s="1">
         <f t="shared" si="5"/>
-        <v>10334.172462798231</v>
+        <v>7750.6293470986711</v>
       </c>
       <c r="AM10" s="1">
         <f t="shared" si="5"/>
-        <v>10654.531809144975</v>
+        <v>7990.8988568587292</v>
       </c>
       <c r="AN10" s="1">
         <f t="shared" si="5"/>
-        <v>10984.822295228469</v>
+        <v>8238.6167214213492</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="5"/>
-        <v>11325.35178638055</v>
+        <v>8494.0138397854098</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="5"/>
-        <v>11676.437691758347</v>
+        <v>8757.3282688187574</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="5"/>
-        <v>12038.407260202854</v>
+        <v>9028.8054451521384</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="5"/>
-        <v>12411.597885269141</v>
+        <v>9308.6984139518536</v>
       </c>
       <c r="AS10" s="1">
         <f t="shared" si="5"/>
-        <v>12796.357419712484</v>
+        <v>9597.2680647843608</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="5"/>
-        <v>13193.04449972357</v>
+        <v>9894.7833747926761</v>
       </c>
       <c r="AU10" s="1">
         <f t="shared" si="5"/>
-        <v>13602.028879215</v>
+        <v>10201.521659411248</v>
       </c>
       <c r="AV10" s="1">
         <f t="shared" si="5"/>
-        <v>14023.691774470664</v>
+        <v>10517.768830852996</v>
       </c>
       <c r="AW10" s="1">
         <f t="shared" si="5"/>
-        <v>14458.426219479254</v>
+        <v>10843.819664609438</v>
       </c>
       <c r="AX10" s="1">
         <f t="shared" si="5"/>
-        <v>14906.637432283109</v>
+        <v>11179.978074212329</v>
       </c>
       <c r="AY10" s="1">
         <f t="shared" si="5"/>
-        <v>15368.743192683884</v>
+        <v>11526.557394512911</v>
       </c>
       <c r="AZ10" s="1">
         <f t="shared" si="5"/>
-        <v>15845.174231657084</v>
+        <v>11883.880673742809</v>
       </c>
       <c r="BA10" s="1">
         <f t="shared" si="5"/>
-        <v>16336.374632838451</v>
+        <v>12252.280974628835</v>
       </c>
       <c r="BB10" s="1">
         <f t="shared" si="5"/>
-        <v>16842.802246456442</v>
+        <v>12632.101684842328</v>
       </c>
       <c r="BC10" s="1">
         <f t="shared" si="5"/>
-        <v>17364.929116096591</v>
+        <v>13023.696837072439</v>
       </c>
       <c r="BD10" s="1">
         <f t="shared" si="5"/>
-        <v>17903.241918695585</v>
+        <v>13427.431439021684</v>
       </c>
       <c r="BE10" s="1">
         <f t="shared" si="5"/>
-        <v>18458.242418175145</v>
+        <v>13843.681813631356</v>
       </c>
       <c r="BF10" s="1">
         <f t="shared" si="5"/>
-        <v>19030.447933138574</v>
+        <v>14272.835949853927</v>
       </c>
       <c r="BG10" s="1">
         <f t="shared" si="5"/>
-        <v>19620.39181906587</v>
+        <v>14715.293864299398</v>
       </c>
       <c r="BH10" s="1">
         <f t="shared" si="5"/>
-        <v>20228.623965456911</v>
+        <v>15171.467974092679</v>
       </c>
       <c r="BI10" s="1">
         <f t="shared" si="5"/>
-        <v>20855.711308386075</v>
+        <v>15641.783481289551</v>
       </c>
       <c r="BJ10" s="1">
         <f t="shared" si="5"/>
-        <v>21502.238358946041</v>
+        <v>16126.678769209526</v>
       </c>
       <c r="BK10" s="1">
         <f t="shared" si="5"/>
-        <v>22168.807748073366</v>
+        <v>16626.605811055018</v>
       </c>
       <c r="BL10" s="1">
         <f t="shared" si="5"/>
-        <v>22856.040788263639</v>
+        <v>17142.030591197723</v>
       </c>
       <c r="BM10" s="1">
         <f t="shared" si="5"/>
-        <v>23564.57805269981</v>
+        <v>17673.433539524853</v>
       </c>
       <c r="BN10" s="1">
         <f t="shared" si="5"/>
-        <v>24295.0799723335</v>
+        <v>18221.309979250123</v>
       </c>
       <c r="BO10" s="1">
         <f t="shared" si="5"/>
-        <v>25048.227451475836</v>
+        <v>18786.170588606874</v>
       </c>
       <c r="BP10" s="1">
         <f t="shared" si="5"/>
-        <v>25824.722502471584</v>
+        <v>19368.541876853684</v>
       </c>
       <c r="BQ10" s="1">
         <f t="shared" si="5"/>
-        <v>26625.288900048203</v>
+        <v>19968.966675036147</v>
       </c>
       <c r="BR10" s="1">
         <f t="shared" si="5"/>
-        <v>27450.672855949695</v>
+        <v>20588.004641962267</v>
       </c>
       <c r="BS10" s="1">
         <f t="shared" si="5"/>
-        <v>28301.643714484133</v>
+        <v>21226.232785863096</v>
       </c>
       <c r="BT10" s="1">
         <f t="shared" si="5"/>
-        <v>29178.994669633139</v>
+        <v>21884.246002224849</v>
       </c>
       <c r="BU10" s="1">
         <f t="shared" si="5"/>
-        <v>30083.543504391764</v>
+        <v>22562.657628293819</v>
       </c>
       <c r="BV10" s="1">
         <f t="shared" si="5"/>
-        <v>31016.133353027908</v>
+        <v>23262.100014770924</v>
       </c>
       <c r="BW10" s="1">
         <f t="shared" si="5"/>
-        <v>31977.633486971772</v>
+        <v>23983.225115228819</v>
       </c>
       <c r="BX10" s="1">
         <f t="shared" si="5"/>
-        <v>32968.940125067893</v>
+        <v>24726.705093800909</v>
       </c>
       <c r="BY10" s="1">
         <f t="shared" si="5"/>
-        <v>33990.977268944996</v>
+        <v>25493.232951708735</v>
       </c>
       <c r="BZ10" s="1">
         <f t="shared" si="5"/>
-        <v>35044.697564282287</v>
+        <v>26283.523173211703</v>
       </c>
       <c r="CA10" s="1">
         <f t="shared" si="5"/>
-        <v>36131.083188775032</v>
+        <v>27098.312391581265</v>
       </c>
       <c r="CB10" s="1">
         <f t="shared" si="5"/>
-        <v>37251.146767627055</v>
+        <v>27938.36007572028</v>
       </c>
       <c r="CC10" s="1">
         <f t="shared" si="5"/>
-        <v>38405.932317423489</v>
+        <v>28804.449238067606</v>
       </c>
       <c r="CD10" s="1">
         <f t="shared" si="5"/>
-        <v>39596.516219263613</v>
+        <v>29697.3871644477</v>
       </c>
       <c r="CE10" s="1">
         <f t="shared" si="5"/>
-        <v>40824.00822206078</v>
+        <v>30618.006166545576</v>
       </c>
       <c r="CF10" s="1">
         <f t="shared" si="5"/>
-        <v>42089.552476944664</v>
+        <v>31567.164357708487</v>
       </c>
       <c r="CG10" s="1">
         <f t="shared" si="5"/>
-        <v>43394.328603729948</v>
+        <v>32545.746452797448</v>
       </c>
       <c r="CH10" s="1">
         <f t="shared" si="5"/>
-        <v>44739.552790445574</v>
+        <v>33554.664592834168</v>
       </c>
       <c r="CI10" s="1">
         <f t="shared" si="5"/>
-        <v>46126.478926949385</v>
+        <v>34594.859195212026</v>
       </c>
       <c r="CJ10" s="1">
         <f t="shared" si="5"/>
-        <v>47556.39977368481</v>
+        <v>35667.299830263597</v>
       </c>
       <c r="CK10" s="1">
         <f t="shared" ref="CK10:DW10" si="6">CJ10*1.031</f>
-        <v>49030.648166669038</v>
+        <v>36772.986125001764</v>
       </c>
       <c r="CL10" s="1">
         <f t="shared" si="6"/>
-        <v>50550.598259835773</v>
+        <v>37912.948694876817</v>
       </c>
       <c r="CM10" s="1">
         <f t="shared" si="6"/>
-        <v>52117.66680589068</v>
+        <v>39088.250104417995</v>
       </c>
       <c r="CN10" s="1">
         <f t="shared" si="6"/>
-        <v>53733.314476873289</v>
+        <v>40299.985857654952</v>
       </c>
       <c r="CO10" s="1">
         <f t="shared" si="6"/>
-        <v>55399.047225656359</v>
+        <v>41549.285419242253</v>
       </c>
       <c r="CP10" s="1">
         <f t="shared" si="6"/>
-        <v>57116.417689651702</v>
+        <v>42837.313267238758</v>
       </c>
       <c r="CQ10" s="1">
         <f t="shared" si="6"/>
-        <v>58887.026638030897</v>
+        <v>44165.26997852316</v>
       </c>
       <c r="CR10" s="1">
         <f t="shared" si="6"/>
-        <v>60712.524463809852</v>
+        <v>45534.393347857374</v>
       </c>
       <c r="CS10" s="1">
         <f t="shared" si="6"/>
-        <v>62594.612722187951</v>
+        <v>46945.95954164095</v>
       </c>
       <c r="CT10" s="1">
         <f t="shared" si="6"/>
-        <v>64535.045716575769</v>
+        <v>48401.284287431816</v>
       </c>
       <c r="CU10" s="1">
         <f t="shared" si="6"/>
-        <v>66535.632133789608</v>
+        <v>49901.724100342195</v>
       </c>
       <c r="CV10" s="1">
         <f t="shared" si="6"/>
-        <v>68598.236729937082</v>
+        <v>51448.677547452797</v>
       </c>
       <c r="CW10" s="1">
         <f t="shared" si="6"/>
-        <v>70724.782068565124</v>
+        <v>53043.586551423832</v>
       </c>
       <c r="CX10" s="1">
         <f t="shared" si="6"/>
-        <v>72917.250312690638</v>
+        <v>54687.937734517967</v>
       </c>
       <c r="CY10" s="1">
         <f t="shared" si="6"/>
-        <v>75177.685072384047</v>
+        <v>56383.263804288021</v>
       </c>
       <c r="CZ10" s="1">
         <f t="shared" si="6"/>
-        <v>77508.193309627939</v>
+        <v>58131.144982220947</v>
       </c>
       <c r="DA10" s="1">
         <f t="shared" si="6"/>
-        <v>79910.947302226399</v>
+        <v>59933.210476669788</v>
       </c>
       <c r="DB10" s="1">
         <f t="shared" si="6"/>
-        <v>82388.186668595416</v>
+        <v>61791.140001446547</v>
       </c>
       <c r="DC10" s="1">
         <f t="shared" si="6"/>
-        <v>84942.220455321862</v>
+        <v>63706.665341491382</v>
       </c>
       <c r="DD10" s="1">
         <f t="shared" si="6"/>
-        <v>87575.429289436826</v>
+        <v>65681.571967077616</v>
       </c>
       <c r="DE10" s="1">
         <f t="shared" si="6"/>
-        <v>90290.267597409358</v>
+        <v>67717.700698057015</v>
       </c>
       <c r="DF10" s="1">
         <f t="shared" si="6"/>
-        <v>93089.265892929034</v>
+        <v>69816.949419696772</v>
       </c>
       <c r="DG10" s="1">
         <f t="shared" si="6"/>
-        <v>95975.033135609832</v>
+        <v>71981.274851707363</v>
       </c>
       <c r="DH10" s="1">
         <f t="shared" si="6"/>
-        <v>98950.259162813731</v>
+        <v>74212.694372110287</v>
       </c>
       <c r="DI10" s="1">
         <f t="shared" si="6"/>
-        <v>102017.71719686095</v>
+        <v>76513.2878976457</v>
       </c>
       <c r="DJ10" s="1">
         <f t="shared" si="6"/>
-        <v>105180.26642996362</v>
+        <v>78885.199822472714</v>
       </c>
       <c r="DK10" s="1">
         <f t="shared" si="6"/>
-        <v>108440.85468929249</v>
+        <v>81330.641016969355</v>
       </c>
       <c r="DL10" s="1">
         <f t="shared" si="6"/>
-        <v>111802.52118466055</v>
+        <v>83851.8908884954</v>
       </c>
       <c r="DM10" s="1">
         <f t="shared" si="6"/>
-        <v>115268.39934138503</v>
+        <v>86451.299506038747</v>
       </c>
       <c r="DN10" s="1">
         <f t="shared" si="6"/>
-        <v>118841.71972096796</v>
+        <v>89131.289790725947</v>
       </c>
       <c r="DO10" s="1">
         <f t="shared" si="6"/>
-        <v>122525.81303231795</v>
+        <v>91894.359774238445</v>
       </c>
       <c r="DP10" s="1">
         <f t="shared" si="6"/>
-        <v>126324.1132363198</v>
+        <v>94743.084927239834</v>
       </c>
       <c r="DQ10" s="1">
         <f t="shared" si="6"/>
-        <v>130240.16074664571</v>
+        <v>97680.120559984265</v>
       </c>
       <c r="DR10" s="1">
         <f t="shared" si="6"/>
-        <v>134277.60572979171</v>
+        <v>100708.20429734376</v>
       </c>
       <c r="DS10" s="1">
         <f t="shared" si="6"/>
-        <v>138440.21150741525</v>
+        <v>103830.15863056142</v>
       </c>
       <c r="DT10" s="1">
         <f t="shared" si="6"/>
-        <v>142731.85806414511</v>
+        <v>107048.89354810881</v>
       </c>
       <c r="DU10" s="1">
         <f t="shared" si="6"/>
-        <v>147156.54566413359</v>
+        <v>110367.40924810017</v>
       </c>
       <c r="DV10" s="1">
         <f t="shared" si="6"/>
-        <v>151718.39857972172</v>
+        <v>113788.79893479127</v>
       </c>
       <c r="DW10" s="1">
         <f t="shared" si="6"/>
-        <v>156421.66893569307</v>
+        <v>117316.25170176978</v>
       </c>
     </row>
     <row r="11" spans="1:127">
@@ -1696,11 +1696,11 @@
       </c>
       <c r="D13" s="12">
         <f>NPV(D12,D10:DW10)</f>
-        <v>54604.64328990192</v>
+        <v>44641.742404510704</v>
       </c>
       <c r="E13" s="13">
         <f>D13/$D$6-1</f>
-        <v>-0.1400843576393398</v>
+        <v>-0.30247277492952029</v>
       </c>
     </row>
     <row r="14" spans="1:127">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="E14" s="2">
         <f>D14/$D$6-1</f>
-        <v>-0.16535433070866146</v>
+        <v>-0.171875</v>
       </c>
     </row>
     <row r="15" spans="1:127">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="E15" s="2">
         <f>D15/$D$6-1</f>
-        <v>-0.21259842519685035</v>
+        <v>-0.21875</v>
       </c>
     </row>
     <row r="16" spans="1:127">
